--- a/Proyectos/2015/12/P1379 - CPOS, Juan Guillermo Contreras _MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/12/P1379 - CPOS, Juan Guillermo Contreras _MO/Planeacion/Plan_de_proyecto.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -281,9 +281,6 @@
     <t>Matriz de resposabilidades</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Interno&gt;</t>
-  </si>
-  <si>
     <t>Rol</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>Dirigir todas las areas de la empresa</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Cliente&gt;</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>Frecuencia de monitoreo</t>
   </si>
   <si>
-    <t>Falla de conexión remota con Ammyy Admin En caso de fallar la conexión remota con Ammy Admin por no instalación o problemas de equipo</t>
-  </si>
-  <si>
     <t>TeamViwer, Show myPC</t>
   </si>
   <si>
@@ -560,9 +551,6 @@
     <t>Semanal</t>
   </si>
   <si>
-    <t>En caso de presentar problemas de instalación y configuración por problemas de compatibilidad</t>
-  </si>
-  <si>
     <t>Validar los requerimientos minimos del equipo</t>
   </si>
   <si>
@@ -572,27 +560,18 @@
     <t>Ocurrido</t>
   </si>
   <si>
-    <t>Falla de descarga de programa ocasionada por una conexión a internet pobre o limitada</t>
-  </si>
-  <si>
     <t>Validar que la descarga se halla realizado</t>
   </si>
   <si>
     <t>Reagenda la cita</t>
   </si>
   <si>
-    <t>Falla electrica por problemas variables que afecta el uso de dispositivos</t>
-  </si>
-  <si>
     <t>Home work</t>
   </si>
   <si>
     <t>Comunicación con el cliente para reagendar cita</t>
   </si>
   <si>
-    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo</t>
-  </si>
-  <si>
     <t>Tener contrato con varias compañias de internet</t>
   </si>
   <si>
@@ -608,9 +587,6 @@
     <t>MA</t>
   </si>
   <si>
-    <t>No obtener carta de aceptación por un cliente que no contesta mensajes</t>
-  </si>
-  <si>
     <t>Enviar factura hasta obtener carta de aceptación</t>
   </si>
   <si>
@@ -653,9 +629,6 @@
     <t>P1379 - CPOS, Juan Guillermo Contreras _MO</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://contpaqi911.bitrix24.com/crm/deal/show/14546/</t>
   </si>
   <si>
@@ -678,6 +651,30 @@
   </si>
   <si>
     <t>Arturo Moctezuma</t>
+  </si>
+  <si>
+    <t>Roles Equipo  Juan Guillermo Contreras</t>
+  </si>
+  <si>
+    <t>Roles Equipo SOS Software</t>
+  </si>
+  <si>
+    <t>Falla de conexión remota con Ammyy Admin En caso de fallar la conexión remota con Ammy Admin por no instalación o problemas de equipo, efecto es que no se pueda dar el servicio</t>
+  </si>
+  <si>
+    <t>En caso de presentar problemas de instalación y configuración por problemas de compatibilidad, efecto retrasa la finalizacion de la tarea</t>
+  </si>
+  <si>
+    <t>Falla de descarga de programa ocasionada por una conexión a internet pobre o limitada, efecto alarga la duracion de la asesoria generando retraso</t>
+  </si>
+  <si>
+    <t>Falla electrica por problemas variables que afecta el uso de dispositivos, el efecto es que se debe reagendar</t>
+  </si>
+  <si>
+    <t>No obtener carta de aceptación por un cliente que no contesta mensajes, efecto es que no se finaliza correctamente nuestro proceso CMMI</t>
+  </si>
+  <si>
+    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo, efecto es que se tenga que reagendar o cancelar otras citas</t>
   </si>
 </sst>
 </file>
@@ -1610,9 +1607,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1632,6 +1626,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2032,11 +2029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2051,62 +2048,62 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="147" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="147"/>
+      <c r="B3" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="146"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="147"/>
+      <c r="C4" s="146"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="147"/>
+      <c r="C6" s="146"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="145">
         <v>42353</v>
       </c>
-      <c r="C7" s="146"/>
+      <c r="C7" s="145"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="147"/>
+      <c r="C8" s="146"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="147">
         <v>42353</v>
       </c>
-      <c r="C9" s="148"/>
+      <c r="C9" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2129,7 +2126,7 @@
   <dimension ref="A1:AMI30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1"/>
@@ -3179,10 +3176,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="149"/>
+      <c r="B2" s="148"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4226,42 +4223,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="149"/>
+      <c r="B5" s="148"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="147"/>
+      <c r="B6" s="146"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="149"/>
+      <c r="B7" s="148"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="147"/>
+      <c r="B8" s="146"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="149"/>
+      <c r="B9" s="148"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4300,12 +4297,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1">
       <c r="A15" s="11" t="s">
@@ -4359,8 +4356,8 @@
       <c r="C18" s="14">
         <v>42362</v>
       </c>
-      <c r="D18" s="145" t="s">
-        <v>165</v>
+      <c r="D18" s="14">
+        <v>42362</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
@@ -4387,10 +4384,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="149"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1">
@@ -4401,42 +4398,42 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="149"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1">
-      <c r="A26" s="153" t="s">
+      <c r="A26" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="153"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="149"/>
+      <c r="B27" s="148"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A28" s="150" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="151"/>
+      <c r="A28" s="149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="150"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="148"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="152"/>
+      <c r="B30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4467,8 +4464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4492,7 +4489,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4501,109 +4498,109 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25">
       <c r="A4" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="C5" s="25">
         <v>3313482553</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>53</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25">
       <c r="A7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="25">
         <v>3318039095</v>
       </c>
       <c r="D7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5">
       <c r="A8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>10</v>
@@ -4612,10 +4609,10 @@
         <v>3312448000</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4634,7 +4631,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75">
       <c r="A12" s="20" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -4643,19 +4640,19 @@
     </row>
     <row r="13" spans="1:5" ht="25.5">
       <c r="A13" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4688,7 +4685,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -4702,7 +4699,7 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4738,19 +4735,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4846,7 +4843,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5927,13 +5924,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1">
-      <c r="A2" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="A2" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -6955,19 +6952,19 @@
     </row>
     <row r="3" spans="1:1023">
       <c r="A3" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="E3" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>84</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -9015,70 +9012,70 @@
     </row>
     <row r="5" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A6" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1023" s="50" customFormat="1" ht="51">
       <c r="A7" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="E7" s="49" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1023" s="50" customFormat="1" ht="25.5">
       <c r="A8" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="46" t="s">
+      <c r="E8" s="49" t="s">
         <v>95</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1023" s="50" customFormat="1">
@@ -9152,50 +9149,50 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A2" s="149" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
+      <c r="A2" s="148" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>106</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="31">
         <v>1</v>
@@ -9204,22 +9201,22 @@
         <v>42354</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="31"/>
       <c r="J4" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
@@ -9228,22 +9225,22 @@
         <v>42354</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G5" s="31"/>
       <c r="J5" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51">
       <c r="A6" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="53">
         <v>2</v>
@@ -9252,13 +9249,13 @@
         <v>42354</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9363,8 +9360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9394,7 +9391,7 @@
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
@@ -9403,7 +9400,7 @@
       <c r="J2" s="63"/>
       <c r="K2" s="64"/>
       <c r="IR2" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="IS2" s="65"/>
       <c r="IT2" s="65"/>
@@ -9428,59 +9425,59 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
       <c r="AE3" s="71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF3" s="71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:261" ht="30">
       <c r="A4" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="E4" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="F4" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="G4" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="H4" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="I4" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="J4" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="K4" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>128</v>
-      </c>
       <c r="AE4" s="76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF4" s="76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:261" ht="76.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:261" ht="89.25">
       <c r="A5" s="77">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
-        <v>129</v>
+      <c r="B5" s="154" t="s">
+        <v>167</v>
       </c>
       <c r="C5" s="77">
         <v>1</v>
@@ -9496,27 +9493,27 @@
         <v>4</v>
       </c>
       <c r="G5" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:261" ht="51">
+    </row>
+    <row r="6" spans="1:261" ht="76.5">
       <c r="A6" s="77">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>134</v>
+      <c r="B6" s="154" t="s">
+        <v>168</v>
       </c>
       <c r="C6" s="77">
         <v>4</v>
@@ -9532,27 +9529,27 @@
         <v>3</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="81" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:261" ht="51">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:261" ht="76.5">
       <c r="A7" s="77">
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>138</v>
+      <c r="B7" s="154" t="s">
+        <v>169</v>
       </c>
       <c r="C7" s="77">
         <v>4</v>
@@ -9568,27 +9565,27 @@
         <v>3</v>
       </c>
       <c r="G7" s="78" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H7" s="78" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:261" ht="38.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:261" ht="51">
       <c r="A8" s="77">
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>141</v>
+      <c r="B8" s="154" t="s">
+        <v>170</v>
       </c>
       <c r="C8" s="77">
         <v>5</v>
@@ -9604,19 +9601,19 @@
         <v>4</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I8" s="77" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="IS8" s="83"/>
       <c r="IT8" s="84"/>
@@ -9627,12 +9624,12 @@
       <c r="IY8" s="86"/>
       <c r="IZ8" s="87"/>
     </row>
-    <row r="9" spans="1:261" ht="58.5">
+    <row r="9" spans="1:261" ht="76.5">
       <c r="A9" s="77">
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>144</v>
+      <c r="B9" s="154" t="s">
+        <v>172</v>
       </c>
       <c r="C9" s="77">
         <v>5</v>
@@ -9648,25 +9645,25 @@
         <v>4</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H9" s="78" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I9" s="77" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="IS9" s="88" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="IT9" s="89" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="IU9" s="90">
         <v>0.9</v>
@@ -9692,12 +9689,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:261" ht="38.25">
+    <row r="10" spans="1:261" ht="76.5">
       <c r="A10" s="96">
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>150</v>
+      <c r="B10" s="154" t="s">
+        <v>171</v>
       </c>
       <c r="C10" s="77">
         <v>1</v>
@@ -9713,23 +9710,23 @@
         <v>3</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="IS10" s="88"/>
       <c r="IT10" s="89" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="IU10" s="90">
         <v>0.7</v>
@@ -9774,7 +9771,7 @@
       <c r="K11" s="104"/>
       <c r="IS11" s="88"/>
       <c r="IT11" s="89" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="IU11" s="90">
         <v>0.5</v>
@@ -9819,7 +9816,7 @@
       <c r="K12" s="104"/>
       <c r="IS12" s="88"/>
       <c r="IT12" s="89" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="IU12" s="90">
         <v>0.3</v>
@@ -9864,7 +9861,7 @@
       <c r="K13" s="104"/>
       <c r="IS13" s="88"/>
       <c r="IT13" s="89" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="IU13" s="111">
         <v>0.1</v>
@@ -9947,19 +9944,19 @@
       <c r="IT15" s="124"/>
       <c r="IU15" s="124"/>
       <c r="IV15" s="89" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="IW15" s="89" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="IX15" s="89" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="IY15" s="89" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="IZ15" s="126" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:261" ht="15">
@@ -9983,7 +9980,7 @@
       <c r="IT16" s="124"/>
       <c r="IU16" s="90"/>
       <c r="IV16" s="127" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="IW16" s="127"/>
       <c r="IX16" s="127"/>
@@ -10060,7 +10057,7 @@
       <c r="J19" s="121"/>
       <c r="K19" s="122"/>
       <c r="IS19" s="131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="IT19" s="131"/>
       <c r="IU19" s="129"/>
@@ -10088,12 +10085,12 @@
       <c r="J20" s="121"/>
       <c r="K20" s="122"/>
       <c r="IS20" s="132" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="IT20" s="133"/>
       <c r="IU20" s="129"/>
       <c r="IV20" s="134" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="IW20" s="134"/>
       <c r="IX20" s="134"/>
@@ -10118,12 +10115,12 @@
       <c r="J21" s="121"/>
       <c r="K21" s="122"/>
       <c r="IS21" s="132" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="IT21" s="135"/>
       <c r="IU21" s="129"/>
       <c r="IV21" s="134" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="IW21" s="134"/>
       <c r="IX21" s="134"/>
@@ -10148,12 +10145,12 @@
       <c r="J22" s="121"/>
       <c r="K22" s="122"/>
       <c r="IS22" s="132" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="IT22" s="136"/>
       <c r="IU22" s="129"/>
       <c r="IV22" s="134" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="IW22" s="134"/>
       <c r="IX22" s="134"/>
